--- a/ac_fantasy_football/players_out_by_week.xlsx
+++ b/ac_fantasy_football/players_out_by_week.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python/fantasy_football/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="105" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{87677D13-2C09-43EC-A060-7D07C0AEAA86}"/>
+  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A745A34-3A81-4120-9E47-DE82B583065C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,16 @@
     <sheet name="WK5" sheetId="5" r:id="rId5"/>
     <sheet name="WK6" sheetId="6" r:id="rId6"/>
     <sheet name="WK7" sheetId="7" r:id="rId7"/>
+    <sheet name="WK8" sheetId="8" r:id="rId8"/>
+    <sheet name="WK9" sheetId="9" r:id="rId9"/>
+    <sheet name="WK10" sheetId="10" r:id="rId10"/>
+    <sheet name="WK11" sheetId="11" r:id="rId11"/>
+    <sheet name="WK12" sheetId="12" r:id="rId12"/>
+    <sheet name="WK13" sheetId="13" r:id="rId13"/>
+    <sheet name="WK14" sheetId="14" r:id="rId14"/>
+    <sheet name="WK15" sheetId="15" r:id="rId15"/>
+    <sheet name="WK16" sheetId="16" r:id="rId16"/>
+    <sheet name="WK17" sheetId="17" r:id="rId17"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -31,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="112">
   <si>
     <t>PLAYER</t>
   </si>
@@ -138,21 +148,12 @@
     <t>BUF</t>
   </si>
   <si>
-    <t>DET</t>
-  </si>
-  <si>
-    <t>J.K. Dobbins</t>
-  </si>
-  <si>
     <t>NYG</t>
   </si>
   <si>
     <t>TEN</t>
   </si>
   <si>
-    <t>BYE</t>
-  </si>
-  <si>
     <t>Andy Dalton</t>
   </si>
   <si>
@@ -255,21 +256,6 @@
     <t>Brandin Cooks</t>
   </si>
   <si>
-    <t>Jared Goff</t>
-  </si>
-  <si>
-    <t>David Montgomery</t>
-  </si>
-  <si>
-    <t>Jahmyr Gibbs</t>
-  </si>
-  <si>
-    <t>Amon-Ra St. Brown</t>
-  </si>
-  <si>
-    <t>Jameson Williams</t>
-  </si>
-  <si>
     <t>Christian Watson</t>
   </si>
   <si>
@@ -285,18 +271,12 @@
     <t>Rashee Rice</t>
   </si>
   <si>
-    <t>Justin Herbert</t>
-  </si>
-  <si>
     <t>Gus Edwards</t>
   </si>
   <si>
     <t>Quentin Johnston</t>
   </si>
   <si>
-    <t>Ladd McConkey</t>
-  </si>
-  <si>
     <t>Zamir White</t>
   </si>
   <si>
@@ -306,30 +286,15 @@
     <t>Malik Nabers</t>
   </si>
   <si>
-    <t>Jalen Hurts</t>
-  </si>
-  <si>
-    <t>Saquon Barkley</t>
-  </si>
-  <si>
     <t>Dallas Goedert</t>
   </si>
   <si>
     <t>Jaylen Warren</t>
   </si>
   <si>
-    <t>Tony Pollard</t>
-  </si>
-  <si>
     <t>Tyjae Spears</t>
   </si>
   <si>
-    <t>Calvin Ridley</t>
-  </si>
-  <si>
-    <t>DeAndre Hopkins</t>
-  </si>
-  <si>
     <t>DEN</t>
   </si>
   <si>
@@ -348,60 +313,9 @@
     <t>Nico Collins</t>
   </si>
   <si>
-    <t>Patrick Mahomes</t>
-  </si>
-  <si>
-    <t>Carson Steele</t>
-  </si>
-  <si>
-    <t>Travis Kelce</t>
-  </si>
-  <si>
-    <t>Xavier Worthy</t>
-  </si>
-  <si>
-    <t>JuJu Smith-Schuster</t>
-  </si>
-  <si>
-    <t>Kyren Williams</t>
-  </si>
-  <si>
-    <t>Blake Corum</t>
-  </si>
-  <si>
-    <t>Jordan Whittington</t>
-  </si>
-  <si>
-    <t>Tutu Atwell</t>
-  </si>
-  <si>
     <t>Jakobi Meyers</t>
   </si>
   <si>
-    <t>Jonnu Smith</t>
-  </si>
-  <si>
-    <t>Tyreek Hill</t>
-  </si>
-  <si>
-    <t>Jaylen Waddle</t>
-  </si>
-  <si>
-    <t>Sam Darnold</t>
-  </si>
-  <si>
-    <t>Aaron Jones</t>
-  </si>
-  <si>
-    <t>Ty Chandler</t>
-  </si>
-  <si>
-    <t>Justin Jefferson</t>
-  </si>
-  <si>
-    <t>Jalen Nailor</t>
-  </si>
-  <si>
     <t>Rhamondre Stevenson</t>
   </si>
   <si>
@@ -423,67 +337,46 @@
     <t>Kayshon Boutte</t>
   </si>
   <si>
-    <t>De'Von Achane</t>
-  </si>
-  <si>
-    <t>Matthew Stafford</t>
-  </si>
-  <si>
     <t>DeVonta Smith</t>
   </si>
   <si>
-    <t>Sam LaPorta</t>
-  </si>
-  <si>
     <t>Rachaad White</t>
   </si>
   <si>
-    <t>DJ Moore</t>
-  </si>
-  <si>
-    <t>Caleb Williams</t>
-  </si>
-  <si>
-    <t>Dak Prescott</t>
-  </si>
-  <si>
-    <t>D'Andre Swift</t>
-  </si>
-  <si>
-    <t>CeeDee Lamb</t>
-  </si>
-  <si>
     <t>Rashid Shaheed</t>
   </si>
   <si>
-    <t>Cole Kmet</t>
-  </si>
-  <si>
     <t>Chris Olave</t>
   </si>
   <si>
     <t>Jerome Ford</t>
   </si>
   <si>
-    <t>Jalen Tolbert</t>
-  </si>
-  <si>
     <t>Jauan Jennings</t>
   </si>
   <si>
-    <t>Rico Dowdle</t>
-  </si>
-  <si>
     <t>Travis Etienne</t>
   </si>
   <si>
     <t>Jakobi Meyer</t>
   </si>
   <si>
-    <t>Rome Odunze</t>
-  </si>
-  <si>
-    <t>Ezekiel Elliott</t>
+    <t>Brandon Aiyuk</t>
+  </si>
+  <si>
+    <t>Christian Kirk</t>
+  </si>
+  <si>
+    <t>Chris Godwin</t>
+  </si>
+  <si>
+    <t>OUT</t>
+  </si>
+  <si>
+    <t>Stefon Diggs</t>
+  </si>
+  <si>
+    <t>Jameis Winston</t>
   </si>
 </sst>
 </file>
@@ -802,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D19" sqref="A19:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,7 +719,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -840,7 +733,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -854,7 +747,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -868,7 +761,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -882,7 +775,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -896,7 +789,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -910,7 +803,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -924,7 +817,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
@@ -938,7 +831,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -966,7 +859,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
         <v>17</v>
@@ -980,7 +873,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -994,7 +887,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -1008,13 +901,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -1022,13 +915,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B16" t="s">
         <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -1036,7 +929,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -1050,16 +943,934 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>111</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF8B24AC-3C97-4978-9302-320F69595FF6}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
         <v>100</v>
       </c>
-      <c r="D18" t="s">
-        <v>20</v>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51D210FD-3398-4D0E-9578-023F7A90D25E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8100BD9D-505A-4508-B18D-AEDAEC07FD6E}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{320F5444-6E26-4A6D-BE57-5CF98095AE87}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D705378A-0F03-4ED4-98CC-16EFF93A815F}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55A349A4-580E-40F3-9B6D-AAD7B870AEC6}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E83B163-E584-4978-8181-C17C015FFF8C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FCE39A6-B87B-47D0-BAC6-31850FB6BB7C}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -1093,7 +1904,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
@@ -1107,7 +1918,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1121,7 +1932,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B4" t="s">
         <v>18</v>
@@ -1135,7 +1946,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1149,7 +1960,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1163,7 +1974,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
@@ -1177,7 +1988,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1191,7 +2002,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -1205,7 +2016,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
         <v>16</v>
@@ -1219,7 +2030,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1233,7 +2044,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>19</v>
@@ -1247,7 +2058,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>17</v>
@@ -1261,7 +2072,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1275,7 +2086,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B15" t="s">
         <v>17</v>
@@ -1303,7 +2114,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -1317,7 +2128,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
@@ -1331,7 +2142,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
         <v>18</v>
@@ -1359,7 +2170,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1373,7 +2184,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1387,13 +2198,13 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B23" t="s">
         <v>16</v>
       </c>
       <c r="C23" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
@@ -1401,7 +2212,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -1415,13 +2226,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>97</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1437,7 +2248,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1458,7 +2269,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B2" t="s">
         <v>17</v>
@@ -1472,7 +2283,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1486,7 +2297,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1500,7 +2311,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1514,7 +2325,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
         <v>16</v>
@@ -1528,7 +2339,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B7" t="s">
         <v>17</v>
@@ -1542,7 +2353,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -1556,7 +2367,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
         <v>19</v>
@@ -1570,7 +2381,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B10" t="s">
         <v>17</v>
@@ -1584,7 +2395,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" t="s">
         <v>17</v>
@@ -1598,7 +2409,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1612,7 +2423,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1626,7 +2437,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
@@ -1640,7 +2451,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
@@ -1654,7 +2465,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -1682,7 +2493,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -1696,7 +2507,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -1724,7 +2535,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -1738,7 +2549,7 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>17</v>
@@ -1752,7 +2563,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B23" t="s">
         <v>19</v>
@@ -1766,7 +2577,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B24" t="s">
         <v>18</v>
@@ -1780,13 +2591,13 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
         <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
         <v>20</v>
@@ -1794,7 +2605,7 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B26" t="s">
         <v>17</v>
@@ -1813,10 +2624,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABEA6E4-267B-425B-A13B-653AFD89314A}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1837,7 +2648,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
@@ -1851,7 +2662,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -1865,7 +2676,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -1879,7 +2690,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
         <v>19</v>
@@ -1893,7 +2704,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B6" t="s">
         <v>17</v>
@@ -1907,7 +2718,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1921,7 +2732,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" t="s">
         <v>19</v>
@@ -1935,7 +2746,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
@@ -1949,7 +2760,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
@@ -1963,7 +2774,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
@@ -1977,7 +2788,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1991,7 +2802,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
@@ -2005,7 +2816,7 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B14" t="s">
         <v>17</v>
@@ -2033,7 +2844,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
@@ -2047,7 +2858,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
@@ -2075,7 +2886,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B19" t="s">
         <v>17</v>
@@ -2089,7 +2900,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
@@ -2103,7 +2914,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
@@ -2117,13 +2928,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>127</v>
+        <v>95</v>
       </c>
       <c r="B22" t="s">
         <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -2131,7 +2942,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
@@ -2140,6 +2951,20 @@
         <v>29</v>
       </c>
       <c r="D23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>111</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" t="s">
         <v>20</v>
       </c>
     </row>
@@ -2150,10 +2975,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D9FC873-1A23-4487-A421-D53C7F1AD143}">
-  <dimension ref="A1:D47"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2174,7 +2999,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -2188,7 +3013,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" t="s">
         <v>17</v>
@@ -2202,7 +3027,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" t="s">
         <v>17</v>
@@ -2216,7 +3041,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -2230,97 +3055,97 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>133</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
@@ -2328,13 +3153,13 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -2342,13 +3167,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -2356,13 +3181,13 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
         <v>20</v>
@@ -2370,13 +3195,13 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -2384,13 +3209,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -2398,13 +3223,13 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
         <v>20</v>
@@ -2412,13 +3237,13 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D19" t="s">
         <v>20</v>
@@ -2426,407 +3251,102 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>84</v>
+        <v>46</v>
       </c>
       <c r="B20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
         <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>87</v>
+        <v>48</v>
       </c>
       <c r="B24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D24" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>29</v>
+        <v>85</v>
       </c>
       <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>25</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>88</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>32</v>
-      </c>
-      <c r="D28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>64</v>
-      </c>
-      <c r="B30" t="s">
-        <v>16</v>
-      </c>
-      <c r="C30" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" t="s">
-        <v>12</v>
-      </c>
-      <c r="D31" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" t="s">
-        <v>17</v>
-      </c>
-      <c r="C32" t="s">
-        <v>13</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>37</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" t="s">
-        <v>18</v>
-      </c>
-      <c r="C34" t="s">
-        <v>37</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>91</v>
-      </c>
-      <c r="B35" t="s">
-        <v>16</v>
-      </c>
-      <c r="C35" t="s">
-        <v>27</v>
-      </c>
-      <c r="D35" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>27</v>
-      </c>
-      <c r="D36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>93</v>
-      </c>
-      <c r="B37" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D37" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>132</v>
-      </c>
-      <c r="B38" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" t="s">
-        <v>27</v>
-      </c>
-      <c r="D38" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>23</v>
-      </c>
-      <c r="B39" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D39" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" t="s">
-        <v>17</v>
-      </c>
-      <c r="C40" t="s">
-        <v>28</v>
-      </c>
-      <c r="D40" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>51</v>
-      </c>
-      <c r="B41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" t="s">
-        <v>15</v>
-      </c>
-      <c r="D41" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>95</v>
-      </c>
-      <c r="B42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C42" t="s">
-        <v>38</v>
-      </c>
-      <c r="D42" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>96</v>
-      </c>
-      <c r="B43" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" t="s">
-        <v>38</v>
-      </c>
-      <c r="D43" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>97</v>
-      </c>
-      <c r="B44" t="s">
-        <v>18</v>
-      </c>
-      <c r="C44" t="s">
-        <v>38</v>
-      </c>
-      <c r="D44" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D45" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>127</v>
-      </c>
-      <c r="B46" t="s">
-        <v>16</v>
-      </c>
-      <c r="C46" t="s">
-        <v>100</v>
-      </c>
-      <c r="D46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>128</v>
-      </c>
-      <c r="B47" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D25">
+    <sortCondition ref="D2:D25"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{58C4D977-5750-4178-B43C-483FFBC4355E}">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2850,7 +3370,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>17</v>
@@ -2864,7 +3384,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -2878,7 +3398,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>17</v>
@@ -2892,7 +3412,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>18</v>
@@ -2906,13 +3426,13 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>20</v>
@@ -2920,7 +3440,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>18</v>
@@ -2934,7 +3454,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>16</v>
@@ -2948,7 +3468,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>17</v>
@@ -2962,125 +3482,125 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1" t="s">
-        <v>83</v>
+        <v>46</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>20</v>
@@ -3088,448 +3608,61 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
-        <v>131</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C34" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C35" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C37" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C40" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C41" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="D41" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C44" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C45" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C48" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="D48" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C49" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D49" s="1" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D21">
+    <sortCondition ref="D2:D21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B0A217-15B5-43E6-8F86-43771EB71C1E}">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
@@ -3549,7 +3682,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
         <v>18</v>
@@ -3563,55 +3696,55 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>136</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -3619,41 +3752,41 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>135</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
         <v>20</v>
@@ -3661,13 +3794,13 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -3675,13 +3808,13 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>104</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="D11" t="s">
         <v>20</v>
@@ -3689,27 +3822,27 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>142</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
         <v>20</v>
@@ -3717,13 +3850,13 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>60</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
@@ -3731,27 +3864,27 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>144</v>
+        <v>105</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>20</v>
@@ -3759,13 +3892,13 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>145</v>
+        <v>83</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
@@ -3773,41 +3906,41 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>146</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>76</v>
       </c>
       <c r="B20" t="s">
         <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>20</v>
@@ -3815,13 +3948,13 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="B21" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C21" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D21" t="s">
         <v>20</v>
@@ -3829,13 +3962,13 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>86</v>
+        <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
@@ -3843,212 +3976,229 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="D23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>148</v>
-      </c>
-      <c r="B24" t="s">
-        <v>18</v>
-      </c>
-      <c r="C24" t="s">
-        <v>32</v>
-      </c>
-      <c r="D24" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>52</v>
-      </c>
-      <c r="B25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>149</v>
-      </c>
-      <c r="B26" t="s">
-        <v>18</v>
-      </c>
-      <c r="C26" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27" t="s">
-        <v>26</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-      <c r="B28" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D29" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>150</v>
-      </c>
-      <c r="B30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>21</v>
-      </c>
-      <c r="D30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>73</v>
-      </c>
-      <c r="B31" t="s">
-        <v>18</v>
-      </c>
-      <c r="C31" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>103</v>
-      </c>
-      <c r="B32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C32" t="s">
-        <v>99</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" t="s">
-        <v>17</v>
-      </c>
-      <c r="C33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>85</v>
-      </c>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34" t="s">
-        <v>29</v>
-      </c>
-      <c r="D34" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>57</v>
-      </c>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B37" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" t="s">
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D23">
+    <sortCondition ref="D2:D23"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A149F231-726F-4257-97F9-421D955D822A}">
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D37" t="s">
-        <v>20</v>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FA301AD-EDD5-436A-8534-687C65FF5C41}">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>110</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/ac_fantasy_football/players_out_by_week.xlsx
+++ b/ac_fantasy_football/players_out_by_week.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f4483ebec2dab5e3/Desktop/Python Rough Drafts/ac_fantasy_football/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="129" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4A745A34-3A81-4120-9E47-DE82B583065C}"/>
+  <xr:revisionPtr revIDLastSave="130" documentId="11_F25DC773A252ABDACC104886491D62825BDE58EF" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7B95634B-BE6E-42E0-8DBA-ED4183F431A0}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="WK1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="111">
   <si>
     <t>PLAYER</t>
   </si>
@@ -356,9 +356,6 @@
   </si>
   <si>
     <t>Travis Etienne</t>
-  </si>
-  <si>
-    <t>Jakobi Meyer</t>
   </si>
   <si>
     <t>Brandon Aiyuk</t>
@@ -957,7 +954,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B19" t="s">
         <v>16</v>
@@ -1009,12 +1006,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1023,7 +1020,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1037,12 +1034,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1051,12 +1048,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1065,12 +1062,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1079,7 +1076,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1122,12 +1119,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1136,7 +1133,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1150,12 +1147,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1164,12 +1161,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1178,12 +1175,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1192,7 +1189,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1235,12 +1232,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1249,7 +1246,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1263,12 +1260,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1277,12 +1274,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1291,12 +1288,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1305,7 +1302,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1348,12 +1345,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1362,7 +1359,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1376,12 +1373,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1390,12 +1387,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1404,12 +1401,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1418,7 +1415,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1461,12 +1458,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1475,7 +1472,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1489,12 +1486,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1503,12 +1500,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1517,12 +1514,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1531,7 +1528,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1574,12 +1571,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1588,7 +1585,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1602,12 +1599,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1616,12 +1613,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1630,12 +1627,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1644,7 +1641,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1687,12 +1684,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1701,7 +1698,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1715,12 +1712,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1729,12 +1726,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1743,12 +1740,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1757,7 +1754,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -1800,12 +1797,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -1814,7 +1811,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1828,12 +1825,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -1842,12 +1839,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -1856,12 +1853,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -1870,7 +1867,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2626,8 +2623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABEA6E4-267B-425B-A13B-653AFD89314A}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2956,7 +2953,7 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
         <v>16</v>
@@ -3346,7 +3343,7 @@
   <dimension ref="A1:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3660,8 +3657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0B0A217-15B5-43E6-8F86-43771EB71C1E}">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3864,7 +3861,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
@@ -4029,12 +4026,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4043,7 +4040,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4057,12 +4054,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -4071,12 +4068,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -4085,7 +4082,7 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -4128,12 +4125,12 @@
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s">
         <v>18</v>
@@ -4142,7 +4139,7 @@
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -4156,12 +4153,12 @@
         <v>13</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
@@ -4170,12 +4167,12 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
@@ -4184,12 +4181,12 @@
         <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
@@ -4198,7 +4195,7 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
